--- a/week5/Classwork 5.xlsx
+++ b/week5/Classwork 5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuchen/Desktop/usc/dso-560-nlp-text-analytics/week5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044F6725-2ECE-2F41-B511-DFA20D9DCAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E2357A-518B-F447-8782-A45FBC46514E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19740" activeTab="2" xr2:uid="{A5673BE5-AC9B-F644-AC82-9F560DDB3F27}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19740" activeTab="1" xr2:uid="{A5673BE5-AC9B-F644-AC82-9F560DDB3F27}"/>
   </bookViews>
   <sheets>
     <sheet name="Embeddings" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -479,6 +479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1018,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0573E79-93D9-6243-9E1B-B45C9927AA30}">
   <dimension ref="B4:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="157" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="157" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1112,9 +1113,9 @@
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="C9" s="19"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
       <c r="I9" s="19" t="s">
         <v>31</v>
       </c>
@@ -1125,9 +1126,9 @@
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
       <c r="C10" s="19"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
       <c r="I10" s="19" t="s">
         <v>32</v>
       </c>
@@ -1138,9 +1139,9 @@
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="C11" s="19"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
       <c r="I11" s="19" t="s">
         <v>33</v>
       </c>
@@ -1170,9 +1171,9 @@
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="23"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
       <c r="I13" s="23" t="s">
         <v>36</v>
       </c>
@@ -1184,9 +1185,9 @@
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="C14" s="23"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
       <c r="I14" s="23" t="s">
         <v>37</v>
       </c>
@@ -1197,9 +1198,9 @@
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="C15" s="23"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
       <c r="I15" s="23" t="s">
         <v>38</v>
       </c>
@@ -1227,9 +1228,9 @@
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
       <c r="C17" s="26"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
       <c r="I17" s="26" t="s">
         <v>40</v>
       </c>
@@ -1240,9 +1241,9 @@
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
       <c r="I18" s="26" t="s">
         <v>41</v>
       </c>
@@ -1253,9 +1254,9 @@
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="26"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
       <c r="I19" s="26" t="s">
         <v>42</v>
       </c>
@@ -1501,7 +1502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8025FCF-F22F-7A4E-9476-1524E18D9442}">
   <dimension ref="A7:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="215" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="215" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
